--- a/data/편집점체크양식.xlsx
+++ b/data/편집점체크양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411BD143-90E5-4E9F-A917-22276ECF23C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5AB05-79AA-4457-9E9F-E199F6D6FC69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{BEB4B4FD-EF90-46EE-9A1A-E83BF5B645FF}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L3" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
